--- a/Framework-Assignment/src/test/resources/registration_test_data.xlsx
+++ b/Framework-Assignment/src/test/resources/registration_test_data.xlsx
@@ -160,9 +160,6 @@
     <t>John</t>
   </si>
   <si>
-    <t>Sheetal</t>
-  </si>
-  <si>
     <t>Aghor</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>sheetal_email&lt;RANDOM&gt;@gmail.com</t>
+  </si>
+  <si>
+    <t>Yogesh</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,7 +501,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -593,10 +593,10 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1"/>
       <c r="Q2" s="2"/>
@@ -615,16 +615,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -663,7 +663,7 @@
         <v>30303</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
         <v>27</v>
@@ -695,7 +695,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -737,7 +737,7 @@
         <v>30303</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
         <v>27</v>

--- a/Framework-Assignment/src/test/resources/registration_test_data.xlsx
+++ b/Framework-Assignment/src/test/resources/registration_test_data.xlsx
@@ -172,7 +172,7 @@
     <t>sheetal_email&lt;RANDOM&gt;@gmail.com</t>
   </si>
   <si>
-    <t>Yogesh</t>
+    <t>Sheetal</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
